--- a/AS.xlsx
+++ b/AS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48B26D-149C-43D0-B78B-596341B1F990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8AC1E-931E-481C-9B29-EF7EE54D347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BEBF955-E107-41E2-99F9-3A98346922FD}"/>
   </bookViews>
@@ -254,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -288,17 +288,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="4"/>
       </right>
@@ -320,15 +309,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -371,9 +363,6 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -388,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA64FA64-7852-4B66-AEE2-6CF45CA42322}" name="Table1" displayName="Table1" ref="A1:AN5" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA64FA64-7852-4B66-AEE2-6CF45CA42322}" name="Table1" displayName="Table1" ref="A1:AN5" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{AB23DFF0-7A7E-4FFC-A44D-9EF6BE8C3F69}" name="Channel"/>
     <tableColumn id="2" xr3:uid="{DD23CD2E-AA43-4C19-807F-EABAD2B72F65}" name="Customer"/>
@@ -504,27 +493,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650A56D4-5900-4815-9CC0-EAB89F40D900}" name="Table2" displayName="Table2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650A56D4-5900-4815-9CC0-EAB89F40D900}" name="Table2" displayName="Table2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:R5" xr:uid="{650A56D4-5900-4815-9CC0-EAB89F40D900}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0CDFDBDA-F436-46E1-9C89-046534BD2A8B}" name="Channel"/>
     <tableColumn id="2" xr3:uid="{55A85E1B-1CDD-4405-BFA6-F944C8ADD358}" name="Customer"/>
     <tableColumn id="3" xr3:uid="{AD3EF237-6A89-4BB3-9B59-39331DA94FEE}" name="Customer Name"/>
     <tableColumn id="4" xr3:uid="{5830007F-EE05-4B91-9EEE-496D56D62F23}" name="Group"/>
-    <tableColumn id="5" xr3:uid="{D7333062-D5B1-40D5-B608-FFF728F2C38B}" name="Material" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D7333062-D5B1-40D5-B608-FFF728F2C38B}" name="Material" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{50A14FB1-D4FC-4EC7-9015-B8023BA9C231}" name="Description"/>
-    <tableColumn id="9" xr3:uid="{E6C4D595-3E02-40A7-92E7-386B46CAA1AB}" name="01-01-2023" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{C0F6A2CA-3683-4352-8BB3-F659E8DE441B}" name="01-02-2023" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{B417CB51-8393-48E6-8741-9FC9957DB6BE}" name="01-03-2023" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{83385E6B-3BE1-4E1B-98F5-DE6504E4601E}" name="01-04-2023" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{CE9FB460-A362-40CD-8D06-AF23E038E190}" name="01-05-2023" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{58C05651-17FC-4FC7-A027-D6E459013DE4}" name="01-06-2023" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{E45AA366-5F70-40FD-A2D2-DFB269EDFF78}" name="01-07-2023" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{1E6BF8FD-E72A-4894-B366-9DB16F6F1620}" name="01-08-2023" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{71DF4B10-1B31-4793-8D5C-4B281FBEB538}" name="01-09-2023" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{3EA33CB8-54DF-4DD6-B261-02B1EFF11CDA}" name="01-10-2023" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{EBFF118D-6C56-46E3-BF2C-E89CA2F2AF38}" name="01-11-2023" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{0511BC41-C936-45D6-9596-9FDE9EE34BF3}" name="01-12-2023" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{E6C4D595-3E02-40A7-92E7-386B46CAA1AB}" name="01-01-2023" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{C0F6A2CA-3683-4352-8BB3-F659E8DE441B}" name="01-02-2023" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{B417CB51-8393-48E6-8741-9FC9957DB6BE}" name="01-03-2023" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{83385E6B-3BE1-4E1B-98F5-DE6504E4601E}" name="01-04-2023" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{CE9FB460-A362-40CD-8D06-AF23E038E190}" name="01-05-2023" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{58C05651-17FC-4FC7-A027-D6E459013DE4}" name="01-06-2023" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{E45AA366-5F70-40FD-A2D2-DFB269EDFF78}" name="01-07-2023" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{1E6BF8FD-E72A-4894-B366-9DB16F6F1620}" name="01-08-2023" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{71DF4B10-1B31-4793-8D5C-4B281FBEB538}" name="01-09-2023" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{3EA33CB8-54DF-4DD6-B261-02B1EFF11CDA}" name="01-10-2023" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{EBFF118D-6C56-46E3-BF2C-E89CA2F2AF38}" name="01-11-2023" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{0511BC41-C936-45D6-9596-9FDE9EE34BF3}" name="01-12-2023" dataDxfId="1" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE0D300-C13D-4EFD-B115-1580AE511392}">
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,113 +959,113 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2">
-        <v>266</v>
-      </c>
-      <c r="F2">
-        <v>145.9</v>
-      </c>
-      <c r="G2">
-        <v>183.1</v>
-      </c>
-      <c r="H2">
-        <v>119.3</v>
-      </c>
-      <c r="I2">
-        <v>180.3</v>
-      </c>
-      <c r="J2">
-        <v>168.5</v>
-      </c>
-      <c r="K2">
-        <v>231.8</v>
-      </c>
-      <c r="L2">
-        <v>224.5</v>
-      </c>
-      <c r="M2">
-        <v>192.8</v>
-      </c>
-      <c r="N2">
-        <v>122.9</v>
-      </c>
-      <c r="O2">
-        <v>336.5</v>
-      </c>
-      <c r="P2">
-        <v>185.9</v>
-      </c>
-      <c r="Q2">
-        <v>194.3</v>
-      </c>
-      <c r="R2">
-        <v>149.5</v>
-      </c>
-      <c r="S2">
-        <v>210.1</v>
-      </c>
-      <c r="T2">
-        <v>273.3</v>
-      </c>
-      <c r="U2">
-        <v>191.4</v>
-      </c>
-      <c r="V2">
-        <v>287</v>
-      </c>
-      <c r="W2">
-        <v>226</v>
-      </c>
-      <c r="X2">
-        <v>303.60000000000002</v>
-      </c>
-      <c r="Y2">
-        <v>289.89999999999998</v>
-      </c>
-      <c r="Z2">
-        <v>421.6</v>
-      </c>
-      <c r="AA2">
-        <v>264.5</v>
-      </c>
-      <c r="AB2">
-        <v>342.3</v>
-      </c>
-      <c r="AC2">
-        <v>339.7</v>
-      </c>
-      <c r="AD2">
-        <v>440.4</v>
-      </c>
-      <c r="AE2">
-        <v>315.89999999999998</v>
-      </c>
-      <c r="AF2">
-        <v>439.3</v>
-      </c>
-      <c r="AG2">
-        <v>401.3</v>
-      </c>
-      <c r="AH2">
-        <v>437.4</v>
-      </c>
-      <c r="AI2">
-        <v>575.5</v>
-      </c>
-      <c r="AJ2">
-        <v>407.6</v>
-      </c>
-      <c r="AK2">
-        <v>682</v>
-      </c>
-      <c r="AL2">
-        <v>475.3</v>
-      </c>
-      <c r="AM2">
-        <v>581.29999999999995</v>
-      </c>
-      <c r="AN2">
-        <v>646.9</v>
+      <c r="E2" s="6">
+        <v>32.9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="H2" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I2" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="J2" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L2" s="6">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="N2" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O2" s="6">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="R2" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="T2" s="6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="U2" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="V2" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="W2" s="6">
+        <v>33</v>
+      </c>
+      <c r="X2" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>31.8</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -1453,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF82B489-2719-46C4-89F2-10BA1D2AAD28}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,41 +1523,41 @@
       <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4">
-        <v>635.96024792663513</v>
-      </c>
-      <c r="H2" s="4">
-        <v>665.37262451627214</v>
-      </c>
-      <c r="I2" s="4">
-        <v>694.78500110590903</v>
-      </c>
-      <c r="J2" s="4">
-        <v>724.19737769554604</v>
-      </c>
-      <c r="K2" s="4">
-        <v>753.60975428518304</v>
-      </c>
-      <c r="L2" s="4">
-        <v>783.02213087482005</v>
-      </c>
-      <c r="M2" s="4">
-        <v>812.43450746445706</v>
-      </c>
-      <c r="N2" s="4">
-        <v>841.84688405409406</v>
-      </c>
-      <c r="O2" s="4">
-        <v>871.25926064373107</v>
-      </c>
-      <c r="P2" s="4">
-        <v>900.67163723336796</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>930.08401382300497</v>
+      <c r="G2" s="5">
+        <v>31.9032258065</v>
+      </c>
+      <c r="H2" s="5">
+        <v>32.190098838099999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>31.7202476788</v>
+      </c>
+      <c r="J2" s="5">
+        <v>32.5705796994</v>
+      </c>
+      <c r="K2" s="5">
+        <v>33.359546394699997</v>
+      </c>
+      <c r="L2" s="5">
+        <v>34.481376867999998</v>
+      </c>
+      <c r="M2" s="5">
+        <v>34.4414677153</v>
+      </c>
+      <c r="N2" s="5">
+        <v>34.226337434900003</v>
+      </c>
+      <c r="O2" s="5">
+        <v>33.361760573200002</v>
+      </c>
+      <c r="P2" s="5">
+        <v>32.651867979499997</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>32.456914807399997</v>
       </c>
       <c r="R2" s="5">
-        <v>959.49639041264197</v>
+        <v>31.929871937600002</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1581,40 +1570,40 @@
       <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>11374.819256300843</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>11040.122214021372</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>10705.425171741901</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>10370.72812946243</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>10036.031087182959</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>9701.3340449034877</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>9366.6370026240147</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>9031.9399603445454</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>8697.2429180650724</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>8362.5458757856031</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>8027.8488335061311</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>7693.1517912266581</v>
       </c>
     </row>
@@ -1628,40 +1617,40 @@
       <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>37051.54377802556</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>42158.026211481374</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>33959.681342871918</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>26870.261351761023</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>26252.401231767362</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>26602.595962606028</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>29252.210765977925</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>33306.894484778742</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>39237.983826166914</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>44344.466259622743</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>36146.121391013279</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>29056.701399902384</v>
       </c>
     </row>
@@ -1675,40 +1664,40 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>2629.9268409638717</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>4695.8597254558426</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>5498.4969640489744</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>1698.013390521058</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>1293.284588708628</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>1345.5461439911721</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>1597.4130135020016</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>1700.1516762802939</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>2370.9559666563678</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>4436.8888511483401</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>5239.5260897414701</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>1439.0425162135541</v>
       </c>
     </row>
